--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_11_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_11_32.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2589056.607155463</v>
+        <v>2697207.70006976</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12443012.75936921</v>
+        <v>12383593.4843585</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283192</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8994978.503186211</v>
+        <v>9001021.513773467</v>
       </c>
     </row>
     <row r="11">
@@ -659,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -674,10 +676,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,16 +712,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>16.82188601375679</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>29.97512327100406</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -756,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,10 +825,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +837,7 @@
         <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,13 +867,13 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>74.91015733440537</v>
       </c>
       <c r="T4" t="n">
-        <v>18.32172890798999</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -880,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>322.5015370208865</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>201.747221965727</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>135.3397600901041</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1105,16 +1107,16 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>261.9657095888479</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>405.6041583842191</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>219.5711540783795</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1291,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>60.03507936555884</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1306,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>32.90388060385576</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1367,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634817</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695541</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560537</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986279</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856565</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101218</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>34.00490843294443</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U13" t="n">
-        <v>180.330238561827</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986279</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856562</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012176</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>104.7950049175949</v>
       </c>
       <c r="U16" t="n">
-        <v>236.7488901283186</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="17">
@@ -1841,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634837</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1892,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881295</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986279</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856562</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012176</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>150.6726801246949</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695537</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174145</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560537</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>116.6320338128955</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>104.1233804225859</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856562</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012176</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012177</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>70.3003498310124</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>38.05096575280812</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2779,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2846,7 +2848,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2950,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>39.52129633183119</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2962,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3010,13 +3012,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>211.8579886296204</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3187,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>119.8264588081768</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,10 +3240,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3320,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3424,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3433,16 +3435,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>40.32853379926828</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3474,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>134.5665975534137</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3484,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3515,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187873</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>3.006892987834117</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>145.7322552292197</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>202.5357706617344</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3977,7 +3979,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4144,10 +4146,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>133.3722917337063</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,7 +4185,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4198,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>49.33106662725117</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>844.329830759459</v>
+        <v>1228.647807131574</v>
       </c>
       <c r="C2" t="n">
-        <v>844.329830759459</v>
+        <v>859.685290191162</v>
       </c>
       <c r="D2" t="n">
-        <v>844.329830759459</v>
+        <v>859.685290191162</v>
       </c>
       <c r="E2" t="n">
-        <v>844.329830759459</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4358,22 +4360,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2545.347524345856</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U2" t="n">
-        <v>2291.766463610035</v>
+        <v>2323.315784712036</v>
       </c>
       <c r="V2" t="n">
-        <v>1960.703576266465</v>
+        <v>1992.252897368465</v>
       </c>
       <c r="W2" t="n">
-        <v>1607.934920996351</v>
+        <v>1992.252897368465</v>
       </c>
       <c r="X2" t="n">
-        <v>1234.469162735271</v>
+        <v>1618.787139107385</v>
       </c>
       <c r="Y2" t="n">
-        <v>844.329830759459</v>
+        <v>1228.647807131574</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>520.4109910936365</v>
       </c>
       <c r="L3" t="n">
-        <v>790.7764984014359</v>
+        <v>815.1145481251083</v>
       </c>
       <c r="M3" t="n">
-        <v>1154.038517360656</v>
+        <v>1178.376567084328</v>
       </c>
       <c r="N3" t="n">
-        <v>1541.323645957601</v>
+        <v>1565.661695681274</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.502629736639</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>750.7605118677428</v>
+        <v>350.1023241168326</v>
       </c>
       <c r="C4" t="n">
-        <v>750.7605118677428</v>
+        <v>350.1023241168326</v>
       </c>
       <c r="D4" t="n">
-        <v>600.6438724554071</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="E4" t="n">
-        <v>452.7307788730139</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F4" t="n">
-        <v>305.8408313751036</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
         <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4513,25 +4515,25 @@
         <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1533.86271359008</v>
+        <v>1458.195887999771</v>
       </c>
       <c r="T4" t="n">
-        <v>1515.355916713322</v>
+        <v>1235.217407194507</v>
       </c>
       <c r="U4" t="n">
-        <v>1226.23757921716</v>
+        <v>1235.217407194507</v>
       </c>
       <c r="V4" t="n">
-        <v>971.553091011273</v>
+        <v>980.5329189886198</v>
       </c>
       <c r="W4" t="n">
-        <v>971.553091011273</v>
+        <v>980.5329189886198</v>
       </c>
       <c r="X4" t="n">
-        <v>971.553091011273</v>
+        <v>752.5433680906025</v>
       </c>
       <c r="Y4" t="n">
-        <v>750.7605118677428</v>
+        <v>531.7507889470724</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1248.370234799863</v>
+        <v>1836.104914868961</v>
       </c>
       <c r="C5" t="n">
-        <v>1248.370234799863</v>
+        <v>1836.104914868961</v>
       </c>
       <c r="D5" t="n">
-        <v>1248.370234799863</v>
+        <v>1477.83921626221</v>
       </c>
       <c r="E5" t="n">
-        <v>1248.370234799863</v>
+        <v>1092.050963663966</v>
       </c>
       <c r="F5" t="n">
-        <v>837.3843300102556</v>
+        <v>681.0650588743586</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362817</v>
@@ -4592,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2025.109406839797</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>2025.109406839797</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W5" t="n">
-        <v>2025.109406839797</v>
+        <v>2209.570673130041</v>
       </c>
       <c r="X5" t="n">
-        <v>2025.109406839797</v>
+        <v>1836.104914868961</v>
       </c>
       <c r="Y5" t="n">
-        <v>1634.970074863985</v>
+        <v>1836.104914868961</v>
       </c>
     </row>
     <row r="6">
@@ -4638,28 +4640,28 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>560.1394111735141</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L6" t="n">
-        <v>854.8429682049857</v>
+        <v>979.6730931919905</v>
       </c>
       <c r="M6" t="n">
-        <v>1218.104987164206</v>
+        <v>1342.93511215121</v>
       </c>
       <c r="N6" t="n">
-        <v>1605.390115761151</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O6" t="n">
-        <v>1937.460550937313</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
         <v>2447.023413292609</v>
@@ -4699,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>305.8408313751036</v>
+        <v>611.483842676853</v>
       </c>
       <c r="C7" t="n">
-        <v>305.8408313751036</v>
+        <v>442.5476597489461</v>
       </c>
       <c r="D7" t="n">
-        <v>305.8408313751036</v>
+        <v>442.5476597489461</v>
       </c>
       <c r="E7" t="n">
         <v>305.8408313751036</v>
@@ -4720,10 +4722,10 @@
         <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4753,22 +4755,22 @@
         <v>1337.23396574994</v>
       </c>
       <c r="T7" t="n">
-        <v>1114.255484944676</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="U7" t="n">
-        <v>825.1371474485136</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="V7" t="n">
-        <v>570.4526592426267</v>
+        <v>1082.549477544053</v>
       </c>
       <c r="W7" t="n">
-        <v>305.8408313751036</v>
+        <v>793.1323075070927</v>
       </c>
       <c r="X7" t="n">
-        <v>305.8408313751036</v>
+        <v>793.1323075070927</v>
       </c>
       <c r="Y7" t="n">
-        <v>305.8408313751036</v>
+        <v>793.1323075070927</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1616.654488422265</v>
+        <v>1524.365833927799</v>
       </c>
       <c r="C8" t="n">
-        <v>1616.654488422265</v>
+        <v>1524.365833927799</v>
       </c>
       <c r="D8" t="n">
-        <v>1616.654488422265</v>
+        <v>1166.100135321049</v>
       </c>
       <c r="E8" t="n">
-        <v>1230.866235824021</v>
+        <v>1166.100135321049</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>755.1142305314415</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>339.4094802557304</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>187.528182236282</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>795.7553530872914</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U8" t="n">
-        <v>3119.628073993393</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V8" t="n">
-        <v>3119.628073993393</v>
+        <v>1897.831592188879</v>
       </c>
       <c r="W8" t="n">
-        <v>2766.859418723278</v>
+        <v>1897.831592188879</v>
       </c>
       <c r="X8" t="n">
-        <v>2393.393660462199</v>
+        <v>1524.365833927799</v>
       </c>
       <c r="Y8" t="n">
-        <v>2003.254328486387</v>
+        <v>1524.365833927799</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>625.8811108217975</v>
+        <v>513.3722731816592</v>
       </c>
       <c r="C10" t="n">
-        <v>456.9449278938906</v>
+        <v>452.7307788730139</v>
       </c>
       <c r="D10" t="n">
-        <v>456.9449278938906</v>
+        <v>452.7307788730139</v>
       </c>
       <c r="E10" t="n">
-        <v>456.9449278938906</v>
+        <v>452.7307788730139</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U10" t="n">
-        <v>1390.775348208175</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="V10" t="n">
-        <v>1136.090860002288</v>
+        <v>962.1544032232067</v>
       </c>
       <c r="W10" t="n">
-        <v>846.6736899653276</v>
+        <v>962.1544032232067</v>
       </c>
       <c r="X10" t="n">
-        <v>846.6736899653276</v>
+        <v>734.1648523251894</v>
       </c>
       <c r="Y10" t="n">
-        <v>625.8811108217975</v>
+        <v>513.3722731816592</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,22 +5029,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5054,10 +5056,10 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5069,16 +5071,16 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
         <v>3094.51519859181</v>
@@ -5121,22 +5123,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>951.7772127656167</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>782.8410298377097</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>632.7243904253738</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429806</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429806</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578604</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000584</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5215,34 +5217,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2345.568987476152</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>2125.967522499093</v>
       </c>
       <c r="U13" t="n">
-        <v>2045.209862480144</v>
+        <v>1836.892295843291</v>
       </c>
       <c r="V13" t="n">
-        <v>1790.525374274257</v>
+        <v>1582.207807637404</v>
       </c>
       <c r="W13" t="n">
-        <v>1501.108204237296</v>
+        <v>1582.207807637404</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1354.218256739387</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>1133.425677595857</v>
       </c>
     </row>
     <row r="14">
@@ -5264,34 +5266,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5358,22 +5360,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245706</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1025.119922845745</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1652.717886400352</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2204.627616639639</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>784.5811134804959</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>615.644930552589</v>
+        <v>929.7309773356201</v>
       </c>
       <c r="D16" t="n">
-        <v>465.5282911402533</v>
+        <v>779.6143379232842</v>
       </c>
       <c r="E16" t="n">
-        <v>317.6151975578602</v>
+        <v>631.701244340891</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429805</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578604</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000584</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5437,10 +5439,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5464,22 +5466,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2091.209005166764</v>
       </c>
       <c r="U16" t="n">
-        <v>1738.320787451601</v>
+        <v>1802.133778510962</v>
       </c>
       <c r="V16" t="n">
-        <v>1483.636299245714</v>
+        <v>1547.449290305075</v>
       </c>
       <c r="W16" t="n">
-        <v>1194.219129208753</v>
+        <v>1547.449290305075</v>
       </c>
       <c r="X16" t="n">
-        <v>966.2295783107356</v>
+        <v>1319.459739407057</v>
       </c>
       <c r="Y16" t="n">
-        <v>966.2295783107356</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
     <row r="17">
@@ -5504,19 +5506,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192609</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332388</v>
@@ -5528,37 +5530,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>840.8417932021788</v>
       </c>
       <c r="N18" t="n">
-        <v>1520.445529061503</v>
+        <v>1468.439756756786</v>
       </c>
       <c r="O18" t="n">
-        <v>2072.35525930079</v>
+        <v>2020.349486996073</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>929.7309773356202</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232843</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408911</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429806</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578604</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000584</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5701,22 +5703,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1501.108204237297</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>1501.108204237297</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>1280.315625093767</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>949.9304447718124</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.04349261611</v>
+        <v>1577.528408326419</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>741.8431516380886</v>
+        <v>2977.325134535465</v>
       </c>
       <c r="C22" t="n">
-        <v>572.9069687101817</v>
+        <v>2859.514999370924</v>
       </c>
       <c r="D22" t="n">
-        <v>422.7903292978459</v>
+        <v>2709.398359958589</v>
       </c>
       <c r="E22" t="n">
-        <v>422.7903292978459</v>
+        <v>2561.485266376195</v>
       </c>
       <c r="F22" t="n">
-        <v>422.7903292978459</v>
+        <v>2561.485266376195</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>2561.485266376195</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218393</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866307</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296631</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.61201282217</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.01060699811</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729145</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.430181389153</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098138</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671697</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650998</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>4440.932614305902</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>4440.932614305902</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>4151.8573876501</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>3897.172899444213</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>3607.755729407253</v>
       </c>
       <c r="X22" t="n">
-        <v>1144.284195611858</v>
+        <v>3379.766178509235</v>
       </c>
       <c r="Y22" t="n">
-        <v>923.4916164683283</v>
+        <v>3158.973599365705</v>
       </c>
     </row>
     <row r="23">
@@ -5978,31 +5980,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362675</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,28 +6062,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>746.8882603249857</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M24" t="n">
-        <v>1344.266747951538</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P24" t="n">
         <v>2319.799627685893</v>
@@ -6121,37 +6123,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>697.5276345711978</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711978</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711978</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888046</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908941</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057739</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6181,16 +6183,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1617.375399479946</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.958229442985</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1099.968678544968</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>879.1760994014377</v>
       </c>
     </row>
     <row r="26">
@@ -6200,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6257,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>2231.588527385791</v>
+        <v>251.5626541092265</v>
       </c>
       <c r="L27" t="n">
-        <v>2257.062161108198</v>
+        <v>746.8882603249853</v>
       </c>
       <c r="M27" t="n">
-        <v>2854.44064873475</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N27" t="n">
-        <v>3482.038612289356</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O27" t="n">
-        <v>4033.948342528643</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P27" t="n">
-        <v>4457.571492023711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2341.482060890433</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>2052.406834234631</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1797.722346028744</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6449,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6476,10 +6478,10 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852255</v>
@@ -6497,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6540,22 +6542,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>1268.578514636218</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N30" t="n">
-        <v>1896.176478190825</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P30" t="n">
         <v>2319.799627685893</v>
@@ -6595,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>810.0653816078141</v>
       </c>
       <c r="C31" t="n">
-        <v>473.9330993947872</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D31" t="n">
-        <v>323.8164599824514</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E31" t="n">
-        <v>175.9033664000583</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F31" t="n">
-        <v>175.9033664000583</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
         <v>175.9033664000583</v>
@@ -6658,13 +6660,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1219.703397336071</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>991.7138464380538</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>991.7138464380538</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
@@ -6731,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6777,28 +6779,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6886,22 +6888,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="35">
@@ -6923,16 +6925,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6950,22 +6952,22 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
@@ -6977,7 +6979,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.04349261611</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>560.7825789706076</v>
+        <v>3047.140839595365</v>
       </c>
       <c r="C37" t="n">
-        <v>391.8463960427007</v>
+        <v>3047.140839595365</v>
       </c>
       <c r="D37" t="n">
-        <v>241.729756630365</v>
+        <v>2897.02420018303</v>
       </c>
       <c r="E37" t="n">
-        <v>93.81666304797189</v>
+        <v>2749.111106600637</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797189</v>
+        <v>2602.221159102726</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797189</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S37" t="n">
-        <v>2243.991523718104</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T37" t="n">
-        <v>2024.390058741045</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U37" t="n">
-        <v>1735.314832085242</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V37" t="n">
-        <v>1480.630343879355</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W37" t="n">
-        <v>1191.213173842395</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="X37" t="n">
-        <v>963.2236229443774</v>
+        <v>3449.581883569135</v>
       </c>
       <c r="Y37" t="n">
-        <v>742.4310438008473</v>
+        <v>3228.789304425605</v>
       </c>
     </row>
     <row r="38">
@@ -7151,61 +7153,61 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
@@ -7257,22 +7259,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N39" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2222.001901828445</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>577.8620388433919</v>
+        <v>950.7540666811332</v>
       </c>
       <c r="C40" t="n">
-        <v>408.925855915485</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D40" t="n">
-        <v>408.925855915485</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E40" t="n">
-        <v>261.0127623330919</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2443.925817935984</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2261.070983590888</v>
+        <v>2232.71308162133</v>
       </c>
       <c r="T40" t="n">
-        <v>2041.469518613829</v>
+        <v>2232.71308162133</v>
       </c>
       <c r="U40" t="n">
-        <v>1752.394291958027</v>
+        <v>1943.637854965528</v>
       </c>
       <c r="V40" t="n">
-        <v>1497.70980375214</v>
+        <v>1688.953366759641</v>
       </c>
       <c r="W40" t="n">
-        <v>1208.292633715179</v>
+        <v>1399.536196722681</v>
       </c>
       <c r="X40" t="n">
-        <v>980.3030828171618</v>
+        <v>1171.546645824663</v>
       </c>
       <c r="Y40" t="n">
-        <v>759.5105036736317</v>
+        <v>950.7540666811332</v>
       </c>
     </row>
     <row r="41">
@@ -7385,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7442,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>2231.588527385791</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>2389.334518447046</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>2884.660124662805</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M42" t="n">
-        <v>3482.038612289356</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N42" t="n">
-        <v>3482.038612289356</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O42" t="n">
-        <v>4033.948342528643</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>783.5579673960132</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1992.480958960563</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1703.405732304761</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1703.405732304761</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1413.9885622678</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1185.999011369783</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>965.2064322262529</v>
       </c>
     </row>
     <row r="44">
@@ -7637,28 +7639,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7734,10 +7736,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>695.5020655703109</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C46" t="n">
-        <v>526.5658826424041</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D46" t="n">
-        <v>376.4492432300683</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E46" t="n">
-        <v>228.5361496476752</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>228.5361496476752</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
         <v>93.81666304797187</v>
@@ -7831,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
   </sheetData>
@@ -8058,10 +8060,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>224.335519760177</v>
       </c>
       <c r="L3" t="n">
-        <v>199.751631150407</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,7 +8072,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>305.1601501039158</v>
+        <v>305.1601501039157</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8079,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8304,13 +8306,13 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>138.9393975111058</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>265.0304328515147</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8526,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -8538,7 +8540,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>211.0329012241559</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8547,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8942,7 +8944,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>-6.80744654077065e-13</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -10832,7 +10834,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>-8.878873722601852e-13</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -23321,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>1.477928890381008e-12</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23425,7 +23427,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23461,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>147.0213775687003</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>105.8542358274172</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23662,10 +23664,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23704,22 +23706,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>112.6104454096935</v>
       </c>
       <c r="U16" t="n">
-        <v>49.43558426092557</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23893,13 +23895,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,19 +23943,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U19" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>135.8503182118963</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,19 +24129,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>50.61478728573242</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>61.40075786968299</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24178,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856563</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24421,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>181.8372934928157</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24604,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,10 +24651,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>179.3544845744802</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24838,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>127.7255247667966</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24850,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -24898,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>74.66500970697064</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25075,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>47.42036229045107</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,10 +25128,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25312,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25321,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>125.1956044930006</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>46.45968844823085</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25372,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>63.36835372228757</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>35.29403077242492</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25789,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>14.86967966555386</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26032,10 +26034,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>32.15184655856257</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -26071,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>176.378588761786</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>786699.0649862048</v>
+        <v>793235.1852373828</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>773498.6533206414</v>
+        <v>773498.6533206413</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>773498.6533206413</v>
+        <v>773498.6533206414</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>773498.6533206413</v>
+        <v>773498.6533206414</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>773498.6533206413</v>
+        <v>773498.6533206414</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>773498.6533206413</v>
+        <v>773498.6533206415</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>773498.6533206413</v>
+        <v>773498.6533206415</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>773498.6533206413</v>
+        <v>773498.6533206414</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>656833.4158914272</v>
+      </c>
+      <c r="C2" t="n">
         <v>656833.4158914268</v>
       </c>
-      <c r="C2" t="n">
-        <v>656833.4158914271</v>
-      </c>
       <c r="D2" t="n">
-        <v>656833.4158914267</v>
+        <v>656833.415891427</v>
       </c>
       <c r="E2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.279752005</v>
       </c>
       <c r="F2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.279752005</v>
       </c>
       <c r="G2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="H2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="I2" t="n">
+        <v>645717.2797520052</v>
+      </c>
+      <c r="J2" t="n">
+        <v>645717.2797520054</v>
+      </c>
+      <c r="K2" t="n">
         <v>645717.2797520047</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>645717.2797520049</v>
       </c>
-      <c r="K2" t="n">
-        <v>645717.2797520048</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
+        <v>645717.2797520051</v>
+      </c>
+      <c r="N2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="O2" t="n">
         <v>645717.279752005</v>
       </c>
-      <c r="M2" t="n">
-        <v>645717.2797520048</v>
-      </c>
-      <c r="N2" t="n">
-        <v>645717.2797520051</v>
-      </c>
-      <c r="O2" t="n">
-        <v>645717.2797520051</v>
-      </c>
       <c r="P2" t="n">
-        <v>645717.2797520047</v>
+        <v>645717.2797520045</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26371,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403379</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>507485.4416245458</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.594527697714511e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.869591415015748e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26389,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099824</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819071</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.641531071072677e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,46 +26420,46 @@
         <v>133113.8635467443</v>
       </c>
       <c r="C4" t="n">
-        <v>133113.8635467443</v>
+        <v>133113.8635467444</v>
       </c>
       <c r="D4" t="n">
-        <v>86694.40323307097</v>
+        <v>133113.8635467444</v>
       </c>
       <c r="E4" t="n">
-        <v>7507.368461719617</v>
+        <v>7507.368461719554</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719584</v>
       </c>
       <c r="G4" t="n">
-        <v>7507.368461719629</v>
+        <v>7507.368461719481</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719555</v>
       </c>
       <c r="I4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.36846171963</v>
       </c>
       <c r="J4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="K4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="L4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="M4" t="n">
-        <v>7507.368461719637</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="N4" t="n">
-        <v>7507.3684617197</v>
+        <v>7507.36846171964</v>
       </c>
       <c r="O4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="P4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26475,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,46 +26521,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-683970.0036710819</v>
+        <v>-683970.0036710815</v>
       </c>
       <c r="C6" t="n">
         <v>430781.7799048381</v>
       </c>
       <c r="D6" t="n">
-        <v>269577.9316566245</v>
+        <v>430781.779904838</v>
       </c>
       <c r="E6" t="n">
-        <v>211674.9196590229</v>
+        <v>29601.93984183257</v>
       </c>
       <c r="F6" t="n">
         <v>537087.381466378</v>
       </c>
       <c r="G6" t="n">
-        <v>537087.3814663781</v>
+        <v>537087.381466378</v>
       </c>
       <c r="H6" t="n">
-        <v>537087.381466378</v>
+        <v>537087.3814663783</v>
       </c>
       <c r="I6" t="n">
-        <v>537087.3814663779</v>
+        <v>537087.3814663785</v>
       </c>
       <c r="J6" t="n">
-        <v>369482.2036563955</v>
+        <v>369482.2036563962</v>
       </c>
       <c r="K6" t="n">
         <v>537087.381466378</v>
       </c>
       <c r="L6" t="n">
-        <v>488793.4114581875</v>
+        <v>537087.3814663781</v>
       </c>
       <c r="M6" t="n">
-        <v>452032.3535308662</v>
+        <v>404480.0877374517</v>
       </c>
       <c r="N6" t="n">
-        <v>537087.3814663783</v>
+        <v>537087.3814663781</v>
       </c>
       <c r="O6" t="n">
-        <v>537087.3814663783</v>
+        <v>537087.3814663781</v>
       </c>
       <c r="P6" t="n">
         <v>537087.3814663779</v>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>640.5848321000387</v>
+      </c>
+      <c r="C4" t="n">
+        <v>640.5848321000387</v>
+      </c>
+      <c r="D4" t="n">
         <v>640.5848321000389</v>
-      </c>
-      <c r="C4" t="n">
-        <v>640.5848321000389</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26802,13 +26804,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26820,10 +26822,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26957,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757592</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26993,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022538</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,22 +27035,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000381</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022538</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022538</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,13 +27381,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27394,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,16 +27432,16 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>189.836298966477</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>221.070126857458</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,10 +27545,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
@@ -27555,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,13 +27587,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>119.7523030273321</v>
       </c>
       <c r="T4" t="n">
-        <v>202.426967089222</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27600,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>89.04616575206751</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>49.29802816273499</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>11.09420255646506</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27825,16 +27827,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>24.55728874774309</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>1.27188735749229</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>81.44739848402588</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>107.211741733069</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28023,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28056,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28065,16 +28067,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>253.3079576017571</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28290,31 +28292,31 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>-2.640686778135464e-14</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>-1.168054440653746e-13</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>-1.168054440653746e-13</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>-1.168054440653746e-13</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>-1.168054440653746e-13</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>-1.168054440653746e-13</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>-1.168054440653746e-13</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>-1.168054440653746e-13</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>-1.168054440653746e-13</v>
       </c>
     </row>
     <row r="14">
@@ -28561,13 +28563,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-9.606012451506739e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-1.168054440653745e-13</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28719,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>-1.168054440653746e-13</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>-1.168054440653746e-13</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>-1.168054440653746e-13</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>-1.168054440653746e-13</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>-1.168054440653746e-13</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>-1.168054440653746e-13</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>-1.168054440653746e-13</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>-1.168054440653746e-13</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>-1.168054440653746e-13</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>-1.168054440653746e-13</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>-1.168054440653746e-13</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>-1.168054440653746e-13</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>-1.168054440653746e-13</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>-1.168054440653746e-13</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>-1.168054440653746e-13</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>-1.168054440653746e-13</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>-1.168054440653746e-13</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>-1.168054440653746e-13</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>-1.168054440653746e-13</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>-1.168054440653746e-13</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>-1.168054440653746e-13</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>-1.168054440653746e-13</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>-1.168054440653746e-13</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>-1.168054440653746e-13</v>
       </c>
     </row>
     <row r="20">
@@ -29001,31 +29003,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>-2.640686778135464e-14</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>-1.168054440653746e-13</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>-1.168054440653746e-13</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>-1.168054440653746e-13</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>-1.168054440653746e-13</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>-1.168054440653746e-13</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>-1.168054440653746e-13</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>-1.168054440653746e-13</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>-1.168054440653746e-13</v>
       </c>
     </row>
     <row r="23">
@@ -31039,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31054,16 +31056,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31075,7 +31077,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31124,7 +31126,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31136,16 +31138,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31203,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31230,7 +31232,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31239,7 +31241,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31841,7 +31843,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31853,13 +31855,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>225.4828684302377</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32080,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>250.3097721075155</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P18" t="n">
-        <v>346.9084613860368</v>
+        <v>436.4492970000066</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,22 +32554,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>169.2687847673323</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O21" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32576,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>309.7666854143577</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>388.5140139297707</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33028,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>297.1808238847171</v>
       </c>
       <c r="L27" t="n">
-        <v>164.2853229338203</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33260,7 +33262,7 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33269,16 +33271,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>339.9772972286971</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>353.3934907042774</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
@@ -33497,22 +33499,22 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>233.3139244897921</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33521,7 +33523,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33670,7 +33672,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460039</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
         <v>790.8204499236507</v>
@@ -33679,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33734,10 +33736,10 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33749,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,37 +33976,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>245.8118639189577</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>468.3778278510275</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>297.1808238847173</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>355.4083096598242</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34454,13 +34456,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34699,19 +34701,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34720,7 +34722,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,22 +34777,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>410.9230160036618</v>
       </c>
       <c r="L3" t="n">
-        <v>497.4319917882572</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
@@ -34799,7 +34801,7 @@
         <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,13 +34856,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34869,13 +34871,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
         <v>451.0527332560634</v>
@@ -35024,13 +35026,13 @@
         <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>530.1364971039797</v>
       </c>
       <c r="O6" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>514.7099619750469</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
         <v>116.4807223308545</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>577.9642335061964</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35431,7 +35433,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,7 +35491,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35501,13 +35503,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>82.88662398579324</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295325</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998982</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683793</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>116.3353646931852</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35820,10 +35822,10 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924738</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P18" t="n">
-        <v>212.9340539717066</v>
+        <v>302.4748895856764</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36057,10 +36059,10 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,22 +36202,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>27.13475084531401</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O21" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36276,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36294,10 +36296,10 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>171.2123056344834</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>245.9177694853263</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36525,16 +36527,16 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O25" t="n">
         <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>159.3393849103582</v>
       </c>
       <c r="L27" t="n">
-        <v>25.73094315394616</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36853,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36917,16 +36919,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>197.8432633066788</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>219.4190832899471</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
@@ -37087,10 +37089,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,22 +37147,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>94.75954470991793</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37169,7 +37171,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37318,7 +37320,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243171</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
@@ -37327,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37397,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462702</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,25 +37627,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>103.6778299969394</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>334.4034204366973</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>159.3393849103583</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>213.2742757378059</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38014,7 +38016,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38102,13 +38104,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_11_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_11_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2697207.70006976</v>
+        <v>2693070.542819608</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283192</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>402.7818379626613</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>29.97512327100406</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -819,25 +819,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>74.91015733440537</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>137.7336954102807</v>
       </c>
     </row>
     <row r="5">
@@ -901,22 +901,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>201.2642689190802</v>
       </c>
       <c r="G5" t="n">
-        <v>322.5015370208865</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1059,22 +1059,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>135.3397600901041</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>23.9456372620864</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>196.2020632744404</v>
       </c>
       <c r="H8" t="n">
-        <v>219.5711540783795</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>60.03507936555884</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>30.09519610355542</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695541</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560537</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986279</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182125</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465693</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.524138292269</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.294712846224</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856565</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101218</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>34.00490843294443</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986279</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182125</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465693</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229314</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.524138292269</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.294712846224</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856562</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012176</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>104.7950049175949</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892443</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V16" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634837</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144415</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986279</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182125</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465693</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229314</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.524138292269</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.294712846224</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856562</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012176</v>
+        <v>9.146142788180381</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>150.6726801246949</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620684</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695537</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174145</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560537</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>116.6320338128955</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182125</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465693</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.294712846224</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856562</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012176</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016447</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520949</v>
+        <v>104.4262124629295</v>
       </c>
     </row>
     <row r="23">
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144415</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465693</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229314</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.524138292269</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.294712846224</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012177</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>70.3003498310124</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634814</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>38.05096575280812</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>172.026033500079</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2955,10 +2955,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712593</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3012,13 +3012,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>211.8579886296204</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3085,7 +3085,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3189,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>119.8264588081768</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3438,7 +3438,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>40.32853379926828</v>
+        <v>118.9504156453515</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3480,13 +3480,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3669,19 +3669,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>145.7322552292197</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>71.79687029691033</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856552</v>
@@ -3951,13 +3951,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>202.5357706617344</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>73.95046331124226</v>
       </c>
     </row>
     <row r="44">
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4146,13 +4146,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>101.1527559011483</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>49.33106662725117</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1228.647807131574</v>
+        <v>531.4162778577438</v>
       </c>
       <c r="C2" t="n">
-        <v>859.685290191162</v>
+        <v>531.4162778577438</v>
       </c>
       <c r="D2" t="n">
-        <v>859.685290191162</v>
+        <v>531.4162778577438</v>
       </c>
       <c r="E2" t="n">
-        <v>473.8970375929177</v>
+        <v>531.4162778577438</v>
       </c>
       <c r="F2" t="n">
-        <v>466.9515368437143</v>
+        <v>524.4707771085403</v>
       </c>
       <c r="G2" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2323.315784712036</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1992.252897368465</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1992.252897368465</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1618.787139107385</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="Y2" t="n">
-        <v>1228.647807131574</v>
+        <v>918.0161179218655</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>168.0008189145203</v>
       </c>
       <c r="K3" t="n">
-        <v>520.4109910936365</v>
+        <v>614.543024838023</v>
       </c>
       <c r="L3" t="n">
-        <v>815.1145481251083</v>
+        <v>909.2465818694948</v>
       </c>
       <c r="M3" t="n">
-        <v>1178.376567084328</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N3" t="n">
-        <v>1565.661695681274</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>350.1023241168326</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="C4" t="n">
-        <v>350.1023241168326</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D4" t="n">
-        <v>199.9856847044969</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E4" t="n">
-        <v>199.9856847044969</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F4" t="n">
-        <v>199.9856847044969</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
         <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4512,28 +4512,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1458.195887999771</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1235.217407194507</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1235.217407194507</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>980.5329189886198</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W4" t="n">
-        <v>980.5329189886198</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="X4" t="n">
-        <v>752.5433680906025</v>
+        <v>1408.45656917648</v>
       </c>
       <c r="Y4" t="n">
-        <v>531.7507889470724</v>
+        <v>1269.331624317611</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1836.104914868961</v>
+        <v>736.6224273402302</v>
       </c>
       <c r="C5" t="n">
-        <v>1836.104914868961</v>
+        <v>736.6224273402302</v>
       </c>
       <c r="D5" t="n">
-        <v>1477.83921626221</v>
+        <v>736.6224273402302</v>
       </c>
       <c r="E5" t="n">
-        <v>1092.050963663966</v>
+        <v>736.6224273402302</v>
       </c>
       <c r="F5" t="n">
-        <v>681.0650588743586</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G5" t="n">
-        <v>355.3059305704328</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872924</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2184.059060190807</v>
       </c>
       <c r="V5" t="n">
-        <v>2562.339328400155</v>
+        <v>1852.996172847236</v>
       </c>
       <c r="W5" t="n">
-        <v>2209.570673130041</v>
+        <v>1500.227517577122</v>
       </c>
       <c r="X5" t="n">
-        <v>1836.104914868961</v>
+        <v>1126.761759316042</v>
       </c>
       <c r="Y5" t="n">
-        <v>1836.104914868961</v>
+        <v>736.6224273402302</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K6" t="n">
-        <v>684.9695361605188</v>
+        <v>614.5430248380223</v>
       </c>
       <c r="L6" t="n">
-        <v>979.6730931919905</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M6" t="n">
-        <v>1342.93511215121</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1867.77024428415</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>611.483842676853</v>
+        <v>981.8280128167645</v>
       </c>
       <c r="C7" t="n">
-        <v>442.5476597489461</v>
+        <v>812.8918298888576</v>
       </c>
       <c r="D7" t="n">
-        <v>442.5476597489461</v>
+        <v>662.7751904765219</v>
       </c>
       <c r="E7" t="n">
-        <v>305.8408313751036</v>
+        <v>514.8620968941287</v>
       </c>
       <c r="F7" t="n">
-        <v>305.8408313751036</v>
+        <v>367.9721493962184</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1082.549477544053</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>793.1323075070927</v>
+        <v>1612.258607688552</v>
       </c>
       <c r="X7" t="n">
-        <v>793.1323075070927</v>
+        <v>1384.269056790534</v>
       </c>
       <c r="Y7" t="n">
-        <v>793.1323075070927</v>
+        <v>1163.476477647004</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1524.365833927799</v>
+        <v>1785.600156360222</v>
       </c>
       <c r="C8" t="n">
-        <v>1524.365833927799</v>
+        <v>1416.637639419811</v>
       </c>
       <c r="D8" t="n">
-        <v>1166.100135321049</v>
+        <v>1416.637639419811</v>
       </c>
       <c r="E8" t="n">
-        <v>1166.100135321049</v>
+        <v>1030.849386821566</v>
       </c>
       <c r="F8" t="n">
-        <v>755.1142305314415</v>
+        <v>619.8634820319589</v>
       </c>
       <c r="G8" t="n">
-        <v>339.4094802557304</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J8" t="n">
-        <v>187.528182236282</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872914</v>
+        <v>795.7553530872924</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U8" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V8" t="n">
-        <v>1897.831592188879</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="W8" t="n">
-        <v>1897.831592188879</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="X8" t="n">
-        <v>1524.365833927799</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="Y8" t="n">
-        <v>1524.365833927799</v>
+        <v>2172.199996424344</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>614.5430248380223</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625329</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M9" t="n">
-        <v>1165.206974733667</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1552.492103330613</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O9" t="n">
-        <v>1884.562538506774</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4925,7 +4925,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,49 +4938,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>513.3722731816592</v>
+        <v>686.1991671823603</v>
       </c>
       <c r="C10" t="n">
-        <v>452.7307788730139</v>
+        <v>517.2629842544534</v>
       </c>
       <c r="D10" t="n">
-        <v>452.7307788730139</v>
+        <v>367.1463448421176</v>
       </c>
       <c r="E10" t="n">
-        <v>452.7307788730139</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F10" t="n">
-        <v>305.8408313751036</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4989,25 +4989,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.817372234358</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1216.838891429094</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1216.838891429094</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>962.1544032232067</v>
+        <v>1606.046932091108</v>
       </c>
       <c r="W10" t="n">
-        <v>962.1544032232067</v>
+        <v>1316.629762054147</v>
       </c>
       <c r="X10" t="n">
-        <v>734.1648523251894</v>
+        <v>1088.64021115613</v>
       </c>
       <c r="Y10" t="n">
-        <v>513.3722731816592</v>
+        <v>867.8476320126</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,22 +5029,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5059,7 +5059,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5083,10 +5083,10 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5117,22 +5117,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>951.7772127656167</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>782.8410298377097</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429806</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429806</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578604</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000584</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5217,34 +5217,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2345.568987476152</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2125.967522499093</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1836.892295843291</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1582.207807637404</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1582.207807637404</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1354.218256739387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1133.425677595857</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5266,34 +5266,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5354,28 +5354,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191926</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>427.7414352191926</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1025.119922845745</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1652.717886400352</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2204.627616639639</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356201</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232842</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>631.701244340891</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429805</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578604</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000584</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5439,10 +5439,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5466,22 +5466,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2091.209005166764</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1802.133778510962</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1547.449290305075</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1547.449290305075</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>1319.459739407057</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>1098.667160263527</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5491,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362699</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192609</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
@@ -5536,31 +5536,31 @@
         <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="18">
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797193</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756267</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756267</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756267</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M18" t="n">
-        <v>840.8417932021788</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N18" t="n">
-        <v>1468.439756756786</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O18" t="n">
-        <v>2020.349486996073</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356202</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232843</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408911</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429806</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578604</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000584</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487567</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1907.987318831765</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1653.302830625878</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1501.108204237297</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237297</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093767</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551876</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,19 +5740,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075811</v>
@@ -5773,25 +5773,25 @@
         <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X20" t="n">
         <v>3094.51519859181</v>
@@ -5825,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797193</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191926</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349515</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718124</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.528408326419</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2977.325134535465</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C22" t="n">
-        <v>2859.514999370924</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D22" t="n">
-        <v>2709.398359958589</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>2561.485266376195</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>2561.485266376195</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376195</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218393</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866307</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296631</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.61201282217</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.01060699811</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729145</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.430181389153</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098138</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671697</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398596</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650998</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.932614305902</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T22" t="n">
-        <v>4440.932614305902</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U22" t="n">
-        <v>4151.8573876501</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V22" t="n">
-        <v>3897.172899444213</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W22" t="n">
-        <v>3607.755729407253</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X22" t="n">
-        <v>3379.766178509235</v>
+        <v>1385.796647783594</v>
       </c>
       <c r="Y22" t="n">
-        <v>3158.973599365705</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362675</v>
+        <v>379.8308874362699</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="24">
@@ -6062,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797193</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1652.717886400351</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>697.5276345711978</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>697.5276345711978</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711978</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888046</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908941</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057739</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1617.375399479946</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1327.958229442985</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1099.968678544968</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>879.1760994014377</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6214,22 +6214,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332386</v>
@@ -6238,7 +6238,7 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6247,31 +6247,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="27">
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>251.5626541092265</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>746.8882603249853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1344.266747951537</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6378,10 +6378,10 @@
         <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6408,25 +6408,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T28" t="n">
-        <v>2341.482060890433</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U28" t="n">
-        <v>2052.406834234631</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V28" t="n">
-        <v>1797.722346028744</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W28" t="n">
-        <v>1508.305175991783</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X28" t="n">
-        <v>1280.315625093766</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y28" t="n">
         <v>1280.315625093766</v>
@@ -6454,34 +6454,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852255</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6539,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>923.0670414349511</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1550.665004989558</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2102.574735228845</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>810.0653816078141</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C31" t="n">
-        <v>641.1291986799072</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D31" t="n">
-        <v>491.0125592675714</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E31" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W31" t="n">
-        <v>1219.703397336071</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X31" t="n">
-        <v>991.7138464380538</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y31" t="n">
-        <v>991.7138464380538</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="32">
@@ -6688,31 +6688,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6776,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>671.2000270096659</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>733.4550657171301</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>612.4182386381636</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>612.4182386381636</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>2197.062545487567</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1907.987318831765</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1653.302830625878</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1363.885660588917</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1135.8961096909</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>915.1035305473698</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6925,10 +6925,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7013,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3047.140839595365</v>
+        <v>1051.622995973711</v>
       </c>
       <c r="C37" t="n">
-        <v>3047.140839595365</v>
+        <v>882.686813045804</v>
       </c>
       <c r="D37" t="n">
-        <v>2897.02420018303</v>
+        <v>732.5701736334682</v>
       </c>
       <c r="E37" t="n">
-        <v>2749.111106600637</v>
+        <v>584.6570800510751</v>
       </c>
       <c r="F37" t="n">
-        <v>2602.221159102726</v>
+        <v>437.7671325531647</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.331149328841</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>3932.255922673039</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V37" t="n">
-        <v>3677.571434467152</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W37" t="n">
-        <v>3677.571434467152</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X37" t="n">
-        <v>3449.581883569135</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y37" t="n">
-        <v>3228.789304425605</v>
+        <v>1051.622995973711</v>
       </c>
     </row>
     <row r="38">
@@ -7165,31 +7165,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>950.7540666811332</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C40" t="n">
-        <v>781.8178837532263</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D40" t="n">
-        <v>631.7012443408905</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2232.71308162133</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2232.71308162133</v>
+        <v>2191.586158026164</v>
       </c>
       <c r="U40" t="n">
-        <v>1943.637854965528</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V40" t="n">
-        <v>1688.953366759641</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W40" t="n">
-        <v>1399.536196722681</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X40" t="n">
-        <v>1171.546645824663</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y40" t="n">
-        <v>950.7540666811332</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="41">
@@ -7393,40 +7393,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7490,25 +7490,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L42" t="n">
-        <v>738.7889117913853</v>
+        <v>119.2902967703784</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718132</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>783.5579673960132</v>
+        <v>659.9487421954783</v>
       </c>
       <c r="C43" t="n">
-        <v>614.6217844681063</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="D43" t="n">
-        <v>464.5051450557705</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E43" t="n">
-        <v>464.5051450557705</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578601</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000582</v>
@@ -7599,22 +7599,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1992.480958960563</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1703.405732304761</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1703.405732304761</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1413.9885622678</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1185.999011369783</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>965.2064322262529</v>
+        <v>841.597207025718</v>
       </c>
     </row>
     <row r="44">
@@ -7654,16 +7654,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>874.8686257536381</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="C46" t="n">
-        <v>705.9324428257312</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7833,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1871.240688199802</v>
+        <v>1875.286579600257</v>
       </c>
       <c r="V46" t="n">
-        <v>1616.556199993915</v>
+        <v>1620.602091394371</v>
       </c>
       <c r="W46" t="n">
-        <v>1327.139029956954</v>
+        <v>1331.18492135741</v>
       </c>
       <c r="X46" t="n">
-        <v>1277.309669727408</v>
+        <v>1103.195370459393</v>
       </c>
       <c r="Y46" t="n">
-        <v>1056.517090583878</v>
+        <v>882.4027913158625</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>54.95314511566558</v>
       </c>
       <c r="K3" t="n">
-        <v>224.335519760177</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8072,16 +8072,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>305.1601501039157</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3273467878346</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8306,7 +8306,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>138.9393975111058</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8315,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,16 +8531,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>193.3273467878346</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>211.0329012241559</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8944,7 +8944,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>-6.80744654077065e-13</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -10834,7 +10834,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>-8.878873722601852e-13</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -23323,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23418,13 +23418,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>147.0213775687003</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819374</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,16 +23706,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>112.6104454096935</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.5229983365911</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23895,13 +23895,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.22910392194126</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272884</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>135.8503182118963</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890373</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>50.61478728573242</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24138,10 +24138,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.524138292269</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>114.1584408891653</v>
       </c>
     </row>
     <row r="23">
@@ -24366,16 +24366,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856563</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>181.8372934928157</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>179.3544845744802</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24843,10 +24843,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>72.11969353038532</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>74.66500970697064</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>47.42036229045107</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25326,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>125.1956044930006</v>
+        <v>46.57372264691736</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,13 +25368,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>35.29403077242492</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>145.6085800303779</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25839,13 +25839,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>14.86967966555386</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>144.6341900408525</v>
       </c>
     </row>
     <row r="44">
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26034,13 +26034,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26073,13 +26073,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>185.0317184880959</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>176.378588761786</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>773498.6533206414</v>
+        <v>773498.6533206413</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>773498.6533206414</v>
+        <v>773498.6533206415</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>773498.6533206414</v>
+        <v>773498.6533206415</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>773498.6533206413</v>
+        <v>773498.6533206414</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>773498.6533206415</v>
+        <v>773498.6533206414</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>773498.6533206414</v>
+        <v>773498.6533206413</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914272</v>
+        <v>656833.415891427</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914268</v>
+        <v>656833.415891427</v>
       </c>
       <c r="D2" t="n">
         <v>656833.415891427</v>
       </c>
       <c r="E2" t="n">
+        <v>645717.2797520048</v>
+      </c>
+      <c r="F2" t="n">
+        <v>645717.2797520047</v>
+      </c>
+      <c r="G2" t="n">
         <v>645717.279752005</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>645717.279752005</v>
-      </c>
-      <c r="G2" t="n">
-        <v>645717.2797520049</v>
-      </c>
-      <c r="H2" t="n">
-        <v>645717.2797520051</v>
       </c>
       <c r="I2" t="n">
         <v>645717.2797520052</v>
       </c>
       <c r="J2" t="n">
-        <v>645717.2797520054</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="K2" t="n">
-        <v>645717.2797520047</v>
+        <v>645717.279752005</v>
       </c>
       <c r="L2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="M2" t="n">
         <v>645717.2797520051</v>
       </c>
       <c r="N2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="O2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520052</v>
       </c>
       <c r="P2" t="n">
-        <v>645717.2797520045</v>
+        <v>645717.2797520048</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245458</v>
+        <v>507485.4416245457</v>
       </c>
       <c r="F3" t="n">
-        <v>3.594527697714511e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.869591415015748e-10</v>
+        <v>4.781995812663809e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099824</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26401,10 +26401,10 @@
         <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.641531071072677e-10</v>
+        <v>2.634483280417043e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26420,28 +26420,28 @@
         <v>133113.8635467443</v>
       </c>
       <c r="C4" t="n">
-        <v>133113.8635467444</v>
+        <v>133113.8635467443</v>
       </c>
       <c r="D4" t="n">
-        <v>133113.8635467444</v>
+        <v>133113.8635467443</v>
       </c>
       <c r="E4" t="n">
-        <v>7507.368461719554</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.368461719584</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="G4" t="n">
-        <v>7507.368461719481</v>
+        <v>7507.36846171961</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.368461719555</v>
+        <v>7507.368461719618</v>
       </c>
       <c r="I4" t="n">
-        <v>7507.36846171963</v>
+        <v>7507.36846171961</v>
       </c>
       <c r="J4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719628</v>
       </c>
       <c r="K4" t="n">
         <v>7507.368461719667</v>
@@ -26453,7 +26453,7 @@
         <v>7507.368461719667</v>
       </c>
       <c r="N4" t="n">
-        <v>7507.36846171964</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="O4" t="n">
         <v>7507.368461719667</v>
@@ -26472,10 +26472,10 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26484,7 +26484,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="H5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-683970.0036710815</v>
+        <v>-683970.0036710817</v>
       </c>
       <c r="C6" t="n">
-        <v>430781.7799048381</v>
+        <v>430781.779904838</v>
       </c>
       <c r="D6" t="n">
-        <v>430781.779904838</v>
+        <v>430781.7799048379</v>
       </c>
       <c r="E6" t="n">
-        <v>29601.93984183257</v>
+        <v>29254.56058747533</v>
       </c>
       <c r="F6" t="n">
-        <v>537087.381466378</v>
+        <v>536740.0022120209</v>
       </c>
       <c r="G6" t="n">
-        <v>537087.381466378</v>
+        <v>536740.0022120208</v>
       </c>
       <c r="H6" t="n">
-        <v>537087.3814663783</v>
+        <v>536740.0022120214</v>
       </c>
       <c r="I6" t="n">
-        <v>537087.3814663785</v>
+        <v>536740.0022120215</v>
       </c>
       <c r="J6" t="n">
-        <v>369482.2036563962</v>
+        <v>369134.8244020386</v>
       </c>
       <c r="K6" t="n">
-        <v>537087.381466378</v>
+        <v>536740.0022120213</v>
       </c>
       <c r="L6" t="n">
-        <v>537087.3814663781</v>
+        <v>536740.0022120212</v>
       </c>
       <c r="M6" t="n">
-        <v>404480.0877374517</v>
+        <v>404132.7084830947</v>
       </c>
       <c r="N6" t="n">
-        <v>537087.3814663781</v>
+        <v>536740.002212021</v>
       </c>
       <c r="O6" t="n">
-        <v>537087.3814663781</v>
+        <v>536740.0022120213</v>
       </c>
       <c r="P6" t="n">
-        <v>537087.3814663779</v>
+        <v>536740.0022120212</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>934.0648921175392</v>
+      </c>
+      <c r="C3" t="n">
         <v>934.0648921175393</v>
       </c>
-      <c r="C3" t="n">
-        <v>934.0648921175391</v>
-      </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26813,7 +26813,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26934,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,14 +26968,14 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>433.9106082241344</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>4.547473508864641e-13</v>
       </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
@@ -26995,10 +26995,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27011,32 +27011,32 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>640.5848321000389</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>532.1234559996094</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>4.547473508864641e-13</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>640.5848321000387</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>532.1234559996095</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>6.821210263296962e-13</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>640.5848321000381</v>
-      </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>8.765864810292669</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>221.070126857458</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,25 +27539,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>119.7523030273321</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>80.85095794181407</v>
       </c>
     </row>
     <row r="5">
@@ -27621,22 +27621,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>205.6117768226312</v>
       </c>
       <c r="G5" t="n">
-        <v>89.04616575206751</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27779,22 +27779,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>11.09420255646506</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
@@ -27833,16 +27833,16 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>262.5773610745046</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>215.3456394985136</v>
       </c>
       <c r="H8" t="n">
-        <v>81.44739848402588</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>107.211741733069</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,19 +28061,19 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>222.0424472202726</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28292,31 +28292,31 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>-2.640686778135464e-14</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>-1.168054440653746e-13</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>-1.168054440653746e-13</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>-1.168054440653746e-13</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>-1.168054440653746e-13</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>-1.168054440653746e-13</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>-1.168054440653746e-13</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>-1.168054440653746e-13</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>-1.168054440653746e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -28563,13 +28563,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-9.606012451506739e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-1.168054440653745e-13</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-1.168054440653746e-13</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>-1.168054440653746e-13</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-1.168054440653746e-13</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>-1.168054440653746e-13</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.168054440653746e-13</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>-1.168054440653746e-13</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>-1.168054440653746e-13</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>-1.168054440653746e-13</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>-1.168054440653746e-13</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>-1.168054440653746e-13</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>-1.168054440653746e-13</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>-1.168054440653746e-13</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>-1.168054440653746e-13</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>-1.168054440653746e-13</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>-1.168054440653746e-13</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>-1.168054440653746e-13</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>-1.168054440653746e-13</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>-1.168054440653746e-13</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>-1.168054440653746e-13</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>-1.168054440653746e-13</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>-1.168054440653746e-13</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>-1.168054440653746e-13</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>-1.168054440653746e-13</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>-1.168054440653746e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -28806,7 +28806,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>-1.080024958355352e-12</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -29003,31 +29003,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>-2.640686778135464e-14</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>-1.168054440653746e-13</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>-1.168054440653746e-13</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>-1.168054440653746e-13</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>-1.168054440653746e-13</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>-1.168054440653746e-13</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>-1.168054440653746e-13</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>-1.168054440653746e-13</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>-1.168054440653746e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -29274,7 +29274,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>-8.682195192673605e-13</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31056,16 +31056,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31077,7 +31077,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31126,7 +31126,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31138,16 +31138,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31232,7 +31232,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31241,7 +31241,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,34 +31372,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,34 +31609,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31837,13 +31837,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31855,7 +31855,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>250.3097721075155</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32311,16 +32311,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862124</v>
@@ -32329,13 +32329,13 @@
         <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P18" t="n">
-        <v>436.4492970000066</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32463,40 +32463,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
         <v>125.3175546292901</v>
@@ -32505,7 +32505,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,28 +32548,28 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>169.2687847673323</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,7 +32578,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796262</v>
@@ -32645,7 +32645,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
@@ -32657,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32785,16 +32785,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862122</v>
@@ -32803,13 +32803,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>388.5140139297707</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32943,7 +32943,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33022,13 +33022,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>297.1808238847171</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473073</v>
@@ -33037,16 +33037,16 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>353.3934907042774</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33505,7 +33505,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>233.3139244897921</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33514,13 +33514,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33733,13 +33733,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>245.8118639189577</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34210,16 +34210,16 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>164.2853229338202</v>
       </c>
       <c r="M42" t="n">
-        <v>355.4083096598242</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071786</v>
@@ -34231,7 +34231,7 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34456,19 +34456,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>163.1438255932938</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34701,19 +34701,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34722,7 +34722,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>117.933366006583</v>
       </c>
       <c r="K3" t="n">
-        <v>410.9230160036618</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>640.5848321000387</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,13 +34856,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34871,13 +34871,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>379.9148430313194</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>530.1364971039797</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313194</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>577.9642335061964</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35503,7 +35503,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295325</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683793</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>116.3353646931852</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35822,10 +35822,10 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35904,7 +35904,7 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924738</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902405</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
         <v>603.412613764194</v>
@@ -35977,13 +35977,13 @@
         <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P18" t="n">
-        <v>302.4748895856764</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902405</v>
@@ -36196,28 +36196,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>27.13475084531401</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396423</v>
       </c>
       <c r="K23" t="n">
         <v>479.4543240367771</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,13 +36451,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>245.9177694853263</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>159.3393849103582</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.3288951674331</v>
@@ -36685,16 +36685,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>219.4190832899471</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37089,7 +37089,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,7 +37153,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>94.75954470991793</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37162,13 +37162,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37314,7 +37314,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,25 +37627,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>103.6778299969394</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37858,16 +37858,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>25.73094315394599</v>
       </c>
       <c r="M42" t="n">
-        <v>213.2742757378059</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238454</v>
@@ -37879,7 +37879,7 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38104,19 +38104,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>20.54758114884936</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_11_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_11_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2693070.542819608</v>
+        <v>2694831.073122392</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -673,13 +673,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>402.7818379626613</v>
+        <v>402.7818379626614</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -834,10 +834,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>74.60053338946699</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>137.7336954102807</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>201.2642689190802</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>271.6458386227932</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>90.69811547110066</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>23.9456372620864</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>196.2020632744404</v>
+        <v>72.74984787564618</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1299,13 +1299,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>23.05561470199493</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>30.09519610355542</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1770,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>228.9553704673018</v>
+        <v>212.5602966632231</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.154082144415</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.146142788180381</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2086,13 +2086,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620684</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>104.4262124629295</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.154082144415</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634814</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,10 +2769,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>172.026033500079</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>137.9792024346624</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,13 +2952,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>108.9065924712593</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>249.7682289193606</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3085,7 +3085,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3192,10 +3192,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>0.2811815126421274</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>107.9721668030644</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3438,7 +3438,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>118.9504156453515</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3483,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3559,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3663,13 +3663,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>71.79687029691033</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>73.95046331124226</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4137,19 +4137,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>101.1527559011483</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4330,16 +4330,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
@@ -4409,28 +4409,28 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>168.0008189145203</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>614.543024838023</v>
+        <v>590.2049751143497</v>
       </c>
       <c r="L3" t="n">
-        <v>909.2465818694948</v>
+        <v>884.9085321458215</v>
       </c>
       <c r="M3" t="n">
-        <v>1272.508600828715</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N3" t="n">
-        <v>1659.79372942566</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O3" t="n">
-        <v>1991.864164601822</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434119</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4448,10 +4448,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1087.683159487371</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C4" t="n">
-        <v>918.7469765594642</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D4" t="n">
-        <v>768.6303371471284</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E4" t="n">
-        <v>620.7172435647353</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4512,28 +4512,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1458.508639459305</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="V4" t="n">
-        <v>1636.446120074497</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="W4" t="n">
-        <v>1636.446120074497</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="X4" t="n">
-        <v>1408.45656917648</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y4" t="n">
-        <v>1269.331624317611</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="5">
@@ -4555,25 +4555,25 @@
         <v>736.6224273402302</v>
       </c>
       <c r="F5" t="n">
-        <v>533.3251860078259</v>
+        <v>325.6365225506226</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362824</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872924</v>
+        <v>795.7553530872921</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923563</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>981.8280128167645</v>
+        <v>370.2996089082458</v>
       </c>
       <c r="C7" t="n">
-        <v>812.8918298888576</v>
+        <v>201.3634259803389</v>
       </c>
       <c r="D7" t="n">
-        <v>662.7751904765219</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="E7" t="n">
-        <v>514.8620968941287</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="F7" t="n">
-        <v>367.9721493962184</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H7" t="n">
         <v>51.24678656800313</v>
@@ -4758,19 +4758,19 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074497</v>
+        <v>1544.831862022881</v>
       </c>
       <c r="V7" t="n">
-        <v>1636.446120074497</v>
+        <v>1290.147373816994</v>
       </c>
       <c r="W7" t="n">
-        <v>1612.258607688552</v>
+        <v>1000.730203780033</v>
       </c>
       <c r="X7" t="n">
-        <v>1384.269056790534</v>
+        <v>772.7406528820156</v>
       </c>
       <c r="Y7" t="n">
-        <v>1163.476477647004</v>
+        <v>551.9480737384855</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1785.600156360222</v>
+        <v>1660.900948886693</v>
       </c>
       <c r="C8" t="n">
-        <v>1416.637639419811</v>
+        <v>1291.938431946281</v>
       </c>
       <c r="D8" t="n">
-        <v>1416.637639419811</v>
+        <v>1291.938431946281</v>
       </c>
       <c r="E8" t="n">
-        <v>1030.849386821566</v>
+        <v>906.150179348037</v>
       </c>
       <c r="F8" t="n">
-        <v>619.8634820319589</v>
+        <v>495.1642745584294</v>
       </c>
       <c r="G8" t="n">
         <v>421.6795797345444</v>
@@ -4807,13 +4807,13 @@
         <v>187.5281822362818</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872924</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230818</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="W8" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="X8" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="Y8" t="n">
-        <v>2172.199996424344</v>
+        <v>2047.500788950815</v>
       </c>
     </row>
     <row r="9">
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>686.1991671823603</v>
+        <v>393.5881086072305</v>
       </c>
       <c r="C10" t="n">
-        <v>517.2629842544534</v>
+        <v>224.6519256793236</v>
       </c>
       <c r="D10" t="n">
-        <v>367.1463448421176</v>
+        <v>74.5352862669879</v>
       </c>
       <c r="E10" t="n">
-        <v>219.2332512597245</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="F10" t="n">
-        <v>219.2332512597245</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="G10" t="n">
         <v>51.24678656800312</v>
@@ -4995,19 +4995,19 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V10" t="n">
-        <v>1606.046932091108</v>
+        <v>1092.643294372448</v>
       </c>
       <c r="W10" t="n">
-        <v>1316.629762054147</v>
+        <v>803.2261243354876</v>
       </c>
       <c r="X10" t="n">
-        <v>1088.64021115613</v>
+        <v>575.2365734374703</v>
       </c>
       <c r="Y10" t="n">
-        <v>867.8476320126</v>
+        <v>575.2365734374703</v>
       </c>
     </row>
     <row r="11">
@@ -5029,19 +5029,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
@@ -5056,7 +5056,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5260,31 +5260,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014778</v>
@@ -5293,7 +5293,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362699</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,40 +5527,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.5840502527391</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516146</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167374</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793926</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348533</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5667,37 +5667,37 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
         <v>2254.869721166297</v>
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332388</v>
@@ -5767,37 +5767,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,16 +5825,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2157.887856924459</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1903.203368718572</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1385.796647783594</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362699</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,16 +6062,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
@@ -6247,31 +6247,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,64 +6360,64 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263526</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356194</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232836</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U28" t="n">
-        <v>2273.199413378161</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V28" t="n">
         <v>2018.514925172274</v>
@@ -6466,16 +6466,16 @@
         <v>378.1925803111703</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6539,13 +6539,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>653.7474797708871</v>
+        <v>550.637687073287</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429802</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429802</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1828.279732885522</v>
+        <v>1725.169940187922</v>
       </c>
       <c r="V31" t="n">
-        <v>1573.595244679635</v>
+        <v>1470.485451982035</v>
       </c>
       <c r="W31" t="n">
-        <v>1284.178074642674</v>
+        <v>1181.068281945074</v>
       </c>
       <c r="X31" t="n">
-        <v>1056.188523744657</v>
+        <v>953.0787310470569</v>
       </c>
       <c r="Y31" t="n">
-        <v>835.3959446011269</v>
+        <v>732.2861519035267</v>
       </c>
     </row>
     <row r="32">
@@ -6688,31 +6688,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>869.9745311434712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>701.0383482155643</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>550.9217088032285</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>403.0086152208354</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>403.0086152208354</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>235.8125159357153</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>94.10068477791341</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>1051.622995973711</v>
       </c>
     </row>
     <row r="35">
@@ -6931,10 +6931,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6964,22 +6964,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1051.622995973711</v>
+        <v>1057.613315601761</v>
       </c>
       <c r="C37" t="n">
-        <v>882.686813045804</v>
+        <v>888.6771326738537</v>
       </c>
       <c r="D37" t="n">
-        <v>732.5701736334682</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E37" t="n">
-        <v>584.6570800510751</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F37" t="n">
-        <v>437.7671325531647</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V37" t="n">
-        <v>1789.822296052219</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="W37" t="n">
-        <v>1500.405126015258</v>
+        <v>1688.043910473548</v>
       </c>
       <c r="X37" t="n">
-        <v>1272.415575117241</v>
+        <v>1460.05435957553</v>
       </c>
       <c r="Y37" t="n">
-        <v>1051.622995973711</v>
+        <v>1239.261780432</v>
       </c>
     </row>
     <row r="38">
@@ -7165,19 +7165,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332386</v>
@@ -7189,34 +7189,34 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7247,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803937</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>727.9786782557277</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>559.0424953278208</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>408.925855915485</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2191.586158026164</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1902.510931370362</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1647.826443164475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1358.409273127515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1130.419722229497</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>909.6271430859674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7393,28 +7393,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,7 +7423,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7487,25 +7487,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>119.2902967703784</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190824</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P42" t="n">
         <v>2319.799627685893</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.9487421954783</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>491.0125592675714</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>491.0125592675714</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>841.597207025718</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7624,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7657,13 +7657,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7742,13 +7742,13 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>700.7543264856228</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>700.7543264856228</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>550.637687073287</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
@@ -7839,19 +7839,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1875.286579600257</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1620.602091394371</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1331.18492135741</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1103.195370459393</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>882.4027913158625</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>54.95314511566558</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>168.7434581780643</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8081,7 +8081,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23658,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>57.22910392194231</v>
+        <v>73.624177726021</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.22910392194126</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>114.1584408891653</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -24657,10 +24657,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24840,13 +24840,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>72.11969353038532</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>36.41624546988359</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25080,10 +25080,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>80.98465480592341</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>40.64330621514796</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25326,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>46.57372264691736</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25551,13 +25551,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>145.6085800303779</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25794,7 +25794,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>144.6341900408525</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26025,19 +26025,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>185.0317184880959</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>773498.6533206413</v>
+        <v>773498.6533206414</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>773498.6533206414</v>
+        <v>773498.6533206413</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>773498.6533206415</v>
+        <v>773498.6533206413</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>773498.6533206413</v>
+        <v>773498.6533206415</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>773498.6533206414</v>
+        <v>773498.6533206413</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>773498.6533206414</v>
+        <v>773498.6533206413</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.415891427</v>
+        <v>656833.4158914272</v>
       </c>
       <c r="C2" t="n">
         <v>656833.415891427</v>
@@ -26322,40 +26322,40 @@
         <v>656833.415891427</v>
       </c>
       <c r="E2" t="n">
+        <v>645717.279752005</v>
+      </c>
+      <c r="F2" t="n">
+        <v>645717.2797520045</v>
+      </c>
+      <c r="G2" t="n">
         <v>645717.2797520048</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>645717.2797520047</v>
       </c>
-      <c r="G2" t="n">
-        <v>645717.279752005</v>
-      </c>
-      <c r="H2" t="n">
-        <v>645717.279752005</v>
-      </c>
       <c r="I2" t="n">
-        <v>645717.2797520052</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="J2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="K2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520047</v>
       </c>
       <c r="L2" t="n">
         <v>645717.2797520048</v>
       </c>
       <c r="M2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="N2" t="n">
         <v>645717.2797520048</v>
       </c>
       <c r="O2" t="n">
-        <v>645717.2797520052</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="P2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.2797520049</v>
       </c>
     </row>
     <row r="3">
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4.781995812663809e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,22 +26389,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289266</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.634483280417043e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26432,16 +26432,16 @@
         <v>7507.368461719667</v>
       </c>
       <c r="G4" t="n">
-        <v>7507.36846171961</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.368461719618</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="I4" t="n">
-        <v>7507.36846171961</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="J4" t="n">
-        <v>7507.368461719628</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="K4" t="n">
         <v>7507.368461719667</v>
@@ -26450,10 +26450,10 @@
         <v>7507.368461719667</v>
       </c>
       <c r="M4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719719</v>
       </c>
       <c r="N4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719719</v>
       </c>
       <c r="O4" t="n">
         <v>7507.368461719667</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
         <v>92937.77243984473</v>
@@ -26484,7 +26484,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
         <v>101122.5298239071</v>
@@ -26530,40 +26530,40 @@
         <v>430781.7799048379</v>
       </c>
       <c r="E6" t="n">
-        <v>29254.56058747533</v>
+        <v>29567.20191639681</v>
       </c>
       <c r="F6" t="n">
-        <v>536740.0022120209</v>
+        <v>537052.6435409421</v>
       </c>
       <c r="G6" t="n">
-        <v>536740.0022120208</v>
+        <v>537052.6435409423</v>
       </c>
       <c r="H6" t="n">
-        <v>536740.0022120214</v>
+        <v>537052.6435409422</v>
       </c>
       <c r="I6" t="n">
-        <v>536740.0022120215</v>
+        <v>537052.6435409425</v>
       </c>
       <c r="J6" t="n">
-        <v>369134.8244020386</v>
+        <v>369447.4657309601</v>
       </c>
       <c r="K6" t="n">
-        <v>536740.0022120213</v>
+        <v>537052.6435409422</v>
       </c>
       <c r="L6" t="n">
-        <v>536740.0022120212</v>
+        <v>537052.6435409423</v>
       </c>
       <c r="M6" t="n">
-        <v>404132.7084830947</v>
+        <v>404445.3498120158</v>
       </c>
       <c r="N6" t="n">
-        <v>536740.002212021</v>
+        <v>537052.6435409423</v>
       </c>
       <c r="O6" t="n">
-        <v>536740.0022120213</v>
+        <v>537052.6435409425</v>
       </c>
       <c r="P6" t="n">
-        <v>536740.0022120212</v>
+        <v>537052.6435409425</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175393</v>
@@ -26804,16 +26804,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26934,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26974,7 +26974,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996092</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27393,7 +27393,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>8.765864810292669</v>
+        <v>8.765864810292612</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>120.0619269722705</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>80.85095794181407</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27627,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>205.6117768226312</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>139.9018641501607</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27782,16 +27782,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27830,13 +27830,13 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>195.5290386500999</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>262.5773610745046</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>215.3456394985136</v>
+        <v>338.7978548973078</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -28019,13 +28019,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>123.3783479445742</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551288</v>
@@ -28067,10 +28067,10 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>222.0424472202726</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28806,7 +28806,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -29274,7 +29274,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-8.682195192673605e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -30042,7 +30042,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30279,7 +30279,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31056,16 +31056,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31077,7 +31077,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31126,7 +31126,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31138,16 +31138,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31232,7 +31232,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31241,7 +31241,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558004</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>398.7616643558013</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33444,7 +33444,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S32" t="n">
         <v>125.31755462929</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>163.1438255932938</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34380,7 +34380,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
         <v>926.5868626460027</v>
@@ -34462,16 +34462,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>163.1438255932938</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34701,19 +34701,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34722,7 +34722,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,22 +34777,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>117.933366006583</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>355.3309544215491</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
@@ -34801,7 +34801,7 @@
         <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,13 +34856,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34871,13 +34871,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35433,7 +35433,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>256.165419911356</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>256.1654199113569</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396423</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37314,7 +37314,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>25.73094315394599</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>20.54758114884936</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38028,7 +38028,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O44" t="n">
         <v>696.488651224316</v>
@@ -38110,16 +38110,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>20.54758114884936</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
